--- a/medicine/Œil et vue/Effet_de_Stiles–Crawford/Effet_de_Stiles–Crawford.xlsx
+++ b/medicine/Œil et vue/Effet_de_Stiles–Crawford/Effet_de_Stiles–Crawford.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Effet_de_Stiles%E2%80%93Crawford</t>
+          <t>Effet_de_Stiles–Crawford</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'effet de Stiles–Crawford est un phénomène optique lié à l'œil décrit en 1933 par les Britanniques W.S. Stiles (1901-1985) et B.H. Crawford (1906-1991). Il est principalement constaté pour la vision photopique et met en évidence une perte de luminosité en bordure du champ de vision[1]. 
-On distingue deux types d'effets Stiles-Crawford : un effet concernant les photorécepteurs et un effet concernant les perceptions des lumières monochromatiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'effet de Stiles–Crawford est un phénomène optique lié à l'œil décrit en 1933 par les Britanniques W.S. Stiles (1901-1985) et B.H. Crawford (1906-1991). Il est principalement constaté pour la vision photopique et met en évidence une perte de luminosité en bordure du champ de vision. 
+On distingue deux types d'effets Stiles-Crawford : un effet concernant les photorécepteurs et un effet concernant les perceptions des lumières monochromatiques.
 Dans ce second cas, les couleurs sont altérées en bordure du champ de vision.
 </t>
         </is>
